--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="677">
   <si>
     <t>Property</t>
   </si>
@@ -995,6 +995,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1053,6 +1056,42 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:BodyTempSnomedCode</t>
+  </si>
+  <si>
+    <t>BodyTempSnomedCode</t>
+  </si>
+  <si>
+    <t>body Height Snomed Code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.code</t>
+  </si>
+  <si>
+    <t>276885007</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempSnomedCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1225,7 +1264,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -2401,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP104"/>
+  <dimension ref="A1:AP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2410,7 +2449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.58984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.11328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.91796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6438,7 +6477,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6502,7 +6541,7 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
@@ -6547,13 +6586,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>314</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -6671,10 +6710,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6789,10 +6828,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6909,10 +6948,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6954,7 +6993,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -7031,10 +7070,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7151,10 +7190,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7194,7 +7233,7 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>80</v>
@@ -7271,10 +7310,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7391,10 +7430,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7513,18 +7552,20 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
@@ -7539,19 +7580,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7600,13 +7641,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -7621,10 +7662,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7635,10 +7676,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7646,35 +7687,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7722,7 +7759,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7734,22 +7771,22 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7757,14 +7794,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7780,19 +7817,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>225</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7830,19 +7867,19 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7854,7 +7891,7 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7863,13 +7900,13 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7877,18 +7914,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7903,19 +7940,19 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7925,7 +7962,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7964,7 +8001,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7979,19 +8016,19 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7999,24 +8036,24 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -8025,20 +8062,18 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8086,7 +8121,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8095,25 +8130,25 @@
         <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>370</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8121,10 +8156,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8132,7 +8167,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>91</v>
@@ -8147,18 +8182,18 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8167,7 +8202,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -8206,7 +8241,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8227,13 +8262,13 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>269</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8241,10 +8276,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8255,7 +8290,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8267,17 +8302,17 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>387</v>
+        <v>274</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8314,23 +8349,25 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8339,19 +8376,19 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>391</v>
+        <v>277</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8359,14 +8396,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8375,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8387,17 +8422,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>387</v>
+        <v>284</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8446,13 +8483,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -8461,19 +8498,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8481,14 +8518,12 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8497,7 +8532,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8509,17 +8544,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8568,13 +8605,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8583,19 +8620,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8603,10 +8640,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8614,7 +8651,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8629,19 +8666,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8678,17 +8715,19 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8697,40 +8736,38 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8739,10 +8776,10 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8751,20 +8788,18 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8812,16 +8847,16 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>103</v>
@@ -8830,31 +8865,31 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8870,19 +8905,23 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8930,7 +8969,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>364</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8942,22 +8981,22 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>222</v>
+        <v>373</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8965,44 +9004,46 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9038,46 +9079,46 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9085,10 +9126,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9096,13 +9137,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -9111,20 +9152,18 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9172,7 +9211,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9193,13 +9232,13 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9207,10 +9246,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9221,36 +9260,34 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q57" t="s" s="2">
-        <v>434</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9270,37 +9307,35 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -9309,19 +9344,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9329,24 +9364,26 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9355,17 +9392,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9414,13 +9451,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -9429,19 +9466,19 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9449,24 +9486,26 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -9475,24 +9514,24 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>80</v>
@@ -9534,34 +9573,34 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9569,10 +9608,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9580,7 +9619,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>91</v>
@@ -9595,19 +9634,19 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9632,31 +9671,29 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9665,7 +9702,7 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
@@ -9674,29 +9711,31 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9714,22 +9753,22 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>204</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9754,13 +9793,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9778,7 +9817,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9787,7 +9826,7 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9796,38 +9835,38 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9839,20 +9878,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
+        <v>219</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9876,13 +9911,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9900,49 +9935,49 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>475</v>
+        <v>221</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9961,20 +9996,18 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>488</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>225</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
+        <v>226</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -10010,19 +10043,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10034,7 +10067,7 @@
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -10043,10 +10076,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>494</v>
+        <v>222</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -10057,10 +10090,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10068,31 +10101,35 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>219</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10140,7 +10177,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10152,7 +10189,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10161,10 +10198,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10175,48 +10212,50 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>225</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10236,43 +10275,43 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -10281,10 +10320,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>222</v>
+        <v>452</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10295,10 +10334,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10306,13 +10345,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -10321,18 +10360,18 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10380,7 +10419,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10401,10 +10440,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10415,10 +10454,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10426,13 +10465,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10441,22 +10480,24 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>505</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>80</v>
@@ -10498,7 +10539,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10507,7 +10548,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10519,10 +10560,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10533,10 +10574,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10550,7 +10591,7 @@
         <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10559,16 +10600,20 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>511</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10592,13 +10637,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10616,10 +10661,10 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>91</v>
@@ -10637,10 +10682,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10651,10 +10696,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10668,7 +10713,7 @@
         <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
@@ -10680,15 +10725,17 @@
         <v>204</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10712,11 +10759,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10734,7 +10783,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10743,7 +10792,7 @@
         <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>103</v>
@@ -10752,38 +10801,38 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10795,16 +10844,20 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>219</v>
+        <v>490</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10828,13 +10881,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10852,49 +10905,49 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>221</v>
+        <v>488</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>222</v>
+        <v>498</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10913,18 +10966,20 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>501</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>225</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>226</v>
+        <v>503</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10960,19 +11015,19 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>228</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10984,7 +11039,7 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10993,10 +11048,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11007,10 +11062,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11021,7 +11076,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -11030,23 +11085,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11070,11 +11121,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11092,19 +11145,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -11113,10 +11166,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11127,21 +11180,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11153,15 +11206,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11198,31 +11253,31 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -11245,21 +11300,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11268,19 +11323,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>136</v>
+        <v>511</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>225</v>
+        <v>512</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>226</v>
+        <v>513</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11318,31 +11373,31 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>228</v>
+        <v>515</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11351,10 +11406,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>222</v>
+        <v>516</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11365,10 +11420,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11376,10 +11431,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11391,20 +11446,16 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>245</v>
+        <v>519</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11452,7 +11503,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>250</v>
+        <v>521</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11473,10 +11524,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>252</v>
+        <v>522</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11487,10 +11538,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11498,7 +11549,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>91</v>
@@ -11513,17 +11564,15 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>218</v>
+        <v>524</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>255</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11572,10 +11621,10 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>258</v>
+        <v>527</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>91</v>
@@ -11593,10 +11642,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>260</v>
+        <v>528</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11607,10 +11656,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11618,7 +11667,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>91</v>
@@ -11630,21 +11679,21 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>263</v>
+        <v>530</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11668,13 +11717,11 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11692,7 +11739,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11710,27 +11757,27 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>268</v>
+        <v>535</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>269</v>
+        <v>536</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11750,21 +11797,19 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>218</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11812,7 +11857,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11824,7 +11869,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11833,10 +11878,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11847,21 +11892,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11870,23 +11915,21 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11922,31 +11965,31 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11955,10 +11998,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11969,10 +12012,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11983,7 +12026,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11995,19 +12038,19 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12032,13 +12075,11 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12056,13 +12097,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -12077,10 +12118,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12091,10 +12132,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12117,20 +12158,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>219</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12154,13 +12191,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12178,7 +12215,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>536</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12190,7 +12227,7 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12199,10 +12236,10 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>545</v>
+        <v>222</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12213,21 +12250,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12239,16 +12276,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>547</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>548</v>
+        <v>225</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>549</v>
+        <v>226</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>550</v>
+        <v>161</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12286,57 +12323,57 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>546</v>
+        <v>228</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>552</v>
+        <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>553</v>
+        <v>222</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12344,7 +12381,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>91</v>
@@ -12356,21 +12393,23 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>557</v>
+        <v>245</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>558</v>
+        <v>246</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12418,7 +12457,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>555</v>
+        <v>250</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12436,27 +12475,27 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>561</v>
+        <v>251</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>562</v>
+        <v>252</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12467,7 +12506,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12476,23 +12515,21 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>565</v>
+        <v>218</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>566</v>
+        <v>255</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>567</v>
+        <v>256</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12540,19 +12577,19 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>564</v>
+        <v>258</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12561,10 +12598,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>259</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>572</v>
+        <v>260</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12575,10 +12612,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12586,7 +12623,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>91</v>
@@ -12598,19 +12635,21 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12658,7 +12697,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12670,7 +12709,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12679,10 +12718,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12693,21 +12732,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12716,21 +12755,21 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12778,19 +12817,19 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12799,10 +12838,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12813,45 +12852,45 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>577</v>
+        <v>281</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12900,19 +12939,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>579</v>
+        <v>285</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12921,10 +12960,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12935,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12958,19 +12997,23 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>581</v>
+        <v>218</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>582</v>
+        <v>290</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13018,7 +13061,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>580</v>
+        <v>294</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13027,7 +13070,7 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
@@ -13039,10 +13082,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>585</v>
+        <v>295</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>586</v>
+        <v>296</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13053,10 +13096,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13079,16 +13122,20 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>581</v>
+        <v>204</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13112,13 +13159,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13136,7 +13183,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13145,7 +13192,7 @@
         <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -13157,10 +13204,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13171,10 +13218,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13197,20 +13244,18 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>204</v>
+        <v>560</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13234,13 +13279,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13258,7 +13303,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13276,27 +13321,27 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>485</v>
+        <v>566</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13307,7 +13352,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13319,20 +13364,18 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>204</v>
+        <v>569</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13356,13 +13399,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13380,13 +13423,13 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
@@ -13398,27 +13441,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>485</v>
+        <v>575</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13429,7 +13472,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13441,17 +13484,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13500,19 +13545,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>583</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13521,10 +13566,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13535,10 +13580,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13564,10 +13609,10 @@
         <v>218</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>614</v>
+        <v>219</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>615</v>
+        <v>220</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13618,7 +13663,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>613</v>
+        <v>221</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13630,7 +13675,7 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13639,10 +13684,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>616</v>
+        <v>222</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13653,14 +13698,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13676,19 +13721,19 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>618</v>
+        <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>619</v>
+        <v>225</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>620</v>
+        <v>226</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>621</v>
+        <v>161</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13738,7 +13783,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>617</v>
+        <v>228</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13750,7 +13795,7 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
@@ -13759,10 +13804,10 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>623</v>
+        <v>222</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13773,14 +13818,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13793,24 +13838,26 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>625</v>
+        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13858,7 +13905,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13870,7 +13917,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13879,10 +13926,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>629</v>
+        <v>134</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13893,10 +13940,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13907,32 +13954,28 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13980,19 +14023,19 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>634</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -14001,10 +14044,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14015,10 +14058,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14041,13 +14084,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>218</v>
+        <v>594</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>219</v>
+        <v>601</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>220</v>
+        <v>602</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14098,7 +14141,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14107,10 +14150,10 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -14119,10 +14162,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>222</v>
+        <v>603</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14133,21 +14176,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -14159,18 +14202,20 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>225</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>226</v>
+        <v>606</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14194,13 +14239,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -14218,31 +14263,31 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>228</v>
+        <v>604</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>222</v>
+        <v>498</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14253,14 +14298,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14273,25 +14318,25 @@
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>161</v>
+        <v>616</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>162</v>
+        <v>617</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14316,13 +14361,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -14340,7 +14385,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14352,19 +14397,19 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>134</v>
+        <v>498</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14375,10 +14420,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14386,34 +14431,32 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>204</v>
+        <v>621</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14438,13 +14481,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -14462,10 +14505,10 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>91</v>
@@ -14480,16 +14523,16 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>309</v>
+        <v>625</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14497,10 +14540,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14514,29 +14557,25 @@
         <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>647</v>
+        <v>218</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14560,13 +14599,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>651</v>
+        <v>80</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>652</v>
+        <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -14584,7 +14623,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14593,7 +14632,7 @@
         <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>653</v>
+        <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>103</v>
@@ -14602,27 +14641,27 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>408</v>
+        <v>598</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>409</v>
+        <v>629</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14633,32 +14672,30 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K102" t="s" s="2">
-        <v>204</v>
+        <v>631</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14682,13 +14719,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14706,16 +14743,16 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>659</v>
+        <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>103</v>
@@ -14727,10 +14764,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>134</v>
+        <v>635</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14741,14 +14778,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14764,23 +14801,21 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>204</v>
+        <v>638</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>477</v>
+        <v>639</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>478</v>
+        <v>640</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14804,13 +14839,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14828,7 +14863,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14846,27 +14881,27 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>484</v>
+        <v>635</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>485</v>
+        <v>642</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14880,28 +14915,28 @@
         <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14950,7 +14985,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14962,29 +14997,999 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP104" t="s" s="2">
+      <c r="AK108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP104">
+  <autoFilter ref="A1:AP112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14994,7 +15999,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -993,9 +993,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>value:code}
@@ -6477,7 +6474,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6541,7 +6538,7 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
@@ -6586,13 +6583,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>314</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -6710,10 +6707,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6828,10 +6825,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6948,10 +6945,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6993,7 +6990,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -7070,10 +7067,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7190,10 +7187,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7233,7 +7230,7 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>80</v>
@@ -7310,10 +7307,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7430,10 +7427,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7552,20 +7549,20 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>314</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
@@ -7583,10 +7580,10 @@
         <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>234</v>
@@ -7676,10 +7673,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7794,10 +7791,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7914,10 +7911,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7962,7 +7959,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -8036,10 +8033,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8156,10 +8153,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8202,7 +8199,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -8276,10 +8273,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8396,10 +8393,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8518,10 +8515,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8640,10 +8637,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8666,19 +8663,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8727,7 +8724,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8742,19 +8739,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8762,10 +8759,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8788,16 +8785,16 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8847,7 +8844,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8871,10 +8868,10 @@
         <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8882,14 +8879,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8908,19 +8905,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8969,7 +8966,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8984,19 +8981,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -9004,14 +9001,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9030,19 +9027,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9091,7 +9088,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9100,25 +9097,25 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9126,10 +9123,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9152,16 +9149,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9211,7 +9208,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9232,13 +9229,13 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9246,10 +9243,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9272,17 +9269,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9319,7 +9316,7 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
@@ -9329,7 +9326,7 @@
         <v>140</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9344,19 +9341,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9364,13 +9361,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
@@ -9392,17 +9389,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9451,7 +9448,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9466,19 +9463,19 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9486,13 +9483,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9514,17 +9511,17 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9573,7 +9570,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9588,19 +9585,19 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9608,10 +9605,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9634,19 +9631,19 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9683,26 +9680,26 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
@@ -9711,30 +9708,30 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
@@ -9756,19 +9753,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9817,7 +9814,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9826,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9835,27 +9832,27 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9970,10 +9967,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10090,10 +10087,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10116,19 +10113,19 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10177,7 +10174,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10198,10 +10195,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10212,10 +10209,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10241,20 +10238,20 @@
         <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>80</v>
@@ -10278,28 +10275,28 @@
         <v>196</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z65" t="s" s="2">
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10320,10 +10317,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10334,10 +10331,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10363,14 +10360,14 @@
         <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10419,7 +10416,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10440,10 +10437,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10454,10 +10451,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10483,72 +10480,72 @@
         <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10560,10 +10557,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10574,10 +10571,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10603,16 +10600,16 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10640,28 +10637,28 @@
         <v>196</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10682,10 +10679,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10696,10 +10693,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10725,16 +10722,16 @@
         <v>204</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10762,37 +10759,37 @@
         <v>303</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>103</v>
@@ -10807,7 +10804,7 @@
         <v>134</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10818,14 +10815,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10847,16 +10844,16 @@
         <v>204</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10884,11 +10881,11 @@
         <v>303</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10923,27 +10920,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>499</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10966,19 +10963,19 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -11027,7 +11024,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11048,10 +11045,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11062,10 +11059,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11180,10 +11177,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11300,10 +11297,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11326,16 +11323,16 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11385,7 +11382,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11409,7 +11406,7 @@
         <v>134</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11420,10 +11417,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11446,13 +11443,13 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11503,7 +11500,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11527,7 +11524,7 @@
         <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11538,10 +11535,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11564,13 +11561,13 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11621,7 +11618,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>91</v>
@@ -11645,7 +11642,7 @@
         <v>134</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11656,10 +11653,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11685,13 +11682,13 @@
         <v>204</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11721,7 +11718,7 @@
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11739,7 +11736,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11757,27 +11754,27 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11892,10 +11889,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12012,10 +12009,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12079,7 +12076,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12132,10 +12129,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12250,10 +12247,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12370,10 +12367,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12492,10 +12489,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12612,10 +12609,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12732,10 +12729,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12852,10 +12849,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12974,10 +12971,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13096,10 +13093,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13125,16 +13122,16 @@
         <v>204</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -13159,14 +13156,14 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Y89" t="s" s="2">
+      <c r="Z89" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13204,10 +13201,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13218,10 +13215,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13244,16 +13241,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13303,7 +13300,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13321,27 +13318,27 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13364,16 +13361,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13423,7 +13420,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13441,27 +13438,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13484,19 +13481,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13545,7 +13542,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13557,19 +13554,19 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13580,10 +13577,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13698,10 +13695,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13818,14 +13815,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13847,10 +13844,10 @@
         <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>161</v>
@@ -13905,7 +13902,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13940,10 +13937,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13966,13 +13963,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14023,7 +14020,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14032,7 +14029,7 @@
         <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>103</v>
@@ -14044,10 +14041,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14058,10 +14055,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14084,13 +14081,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14141,7 +14138,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14150,7 +14147,7 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>103</v>
@@ -14162,10 +14159,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14176,10 +14173,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14205,16 +14202,16 @@
         <v>204</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14242,11 +14239,11 @@
         <v>115</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>610</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14263,7 +14260,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14281,13 +14278,13 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="AM98" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="AN98" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14298,10 +14295,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14327,16 +14324,16 @@
         <v>204</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14361,14 +14358,14 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>619</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14385,7 +14382,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14403,13 +14400,13 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="AM99" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="AN99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14420,10 +14417,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14446,17 +14443,17 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14505,7 +14502,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14529,7 +14526,7 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14540,10 +14537,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14569,10 +14566,10 @@
         <v>218</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14623,7 +14620,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14644,10 +14641,10 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14658,10 +14655,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14684,16 +14681,16 @@
         <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14743,7 +14740,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14764,10 +14761,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14778,10 +14775,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14804,16 +14801,16 @@
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14863,7 +14860,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14884,10 +14881,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -14898,10 +14895,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14924,19 +14921,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14985,7 +14982,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14997,19 +14994,19 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
@@ -15020,10 +15017,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15138,10 +15135,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15258,14 +15255,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15287,10 +15284,10 @@
         <v>136</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>161</v>
@@ -15345,7 +15342,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15380,10 +15377,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15409,16 +15406,16 @@
         <v>204</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15467,7 +15464,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>91</v>
@@ -15485,7 +15482,7 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>308</v>
@@ -15502,10 +15499,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15528,19 +15525,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>663</v>
-      </c>
       <c r="O109" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15568,37 +15565,37 @@
         <v>196</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Z109" t="s" s="2">
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI109" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>103</v>
@@ -15607,27 +15604,27 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15653,16 +15650,16 @@
         <v>204</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>671</v>
-      </c>
       <c r="O110" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15690,11 +15687,11 @@
         <v>303</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
       </c>
@@ -15711,7 +15708,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15720,7 +15717,7 @@
         <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>103</v>
@@ -15735,7 +15732,7 @@
         <v>134</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15746,14 +15743,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15775,16 +15772,16 @@
         <v>204</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -15812,11 +15809,11 @@
         <v>303</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>80</v>
       </c>
@@ -15833,7 +15830,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -15851,27 +15848,27 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>499</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15897,16 +15894,16 @@
         <v>81</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="N112" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -15955,7 +15952,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15976,10 +15973,10 @@
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="659">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -462,6 +462,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Observation.extension:confoundingFactor</t>
+  </si>
+  <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Additional issues or factors that may impact on the measurement of body temperature, not captured in other fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Observation.extension:daysSinceMenstruationStart</t>
   </si>
   <si>
@@ -475,10 +495,6 @@
     <t>Current day of the menstrual cycle.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:bodyExposure</t>
   </si>
   <si>
@@ -1136,7 +1152,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension focusCode.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1194,7 +1210,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1345,9 +1361,6 @@
     <t>The measured temperature.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1594,72 +1607,6 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
-    <t>Observation.note.id</t>
-  </si>
-  <si>
-    <t>Observation.note.extension</t>
-  </si>
-  <si>
-    <t>Observation.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Observation.note.time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Observation.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1670,7 +1617,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension bodySite.</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationBodyTempBodySite</t>
@@ -1992,7 +1939,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from QuestionnaireResponse  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2014,7 +1961,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see Notes below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2083,7 +2030,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2437,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP112"/>
+  <dimension ref="A1:AP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3607,7 +3554,7 @@
         <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3667,7 +3614,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3693,13 +3640,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3721,13 +3668,13 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3787,7 +3734,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3802,7 +3749,7 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -3813,13 +3760,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3841,10 +3788,10 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>156</v>
@@ -3907,7 +3854,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>142</v>
@@ -3936,43 +3883,41 @@
         <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -4020,7 +3965,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4029,7 +3974,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>142</v>
@@ -4044,7 +3989,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -4055,14 +4000,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -4075,23 +4020,25 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -4140,7 +4087,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4152,22 +4099,22 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -4175,14 +4122,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4201,17 +4148,17 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4260,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4275,19 +4222,19 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4295,14 +4242,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4321,18 +4268,18 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4380,7 +4327,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4395,16 +4342,16 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4415,46 +4362,44 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4478,11 +4423,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4500,13 +4447,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -4515,19 +4462,19 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4535,10 +4482,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4549,31 +4496,31 @@
         <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4598,35 +4545,35 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -4635,19 +4582,19 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4655,14 +4602,12 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4671,7 +4616,7 @@
         <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>92</v>
@@ -4683,19 +4628,19 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4723,28 +4668,26 @@
         <v>115</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4768,10 +4711,10 @@
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4779,24 +4722,26 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4805,16 +4750,20 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4838,13 +4787,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4862,19 +4811,19 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4886,10 +4835,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4897,21 +4846,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4923,17 +4872,15 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4970,43 +4917,43 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -5017,46 +4964,44 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -5092,19 +5037,19 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5116,7 +5061,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -5125,10 +5070,10 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5139,10 +5084,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5150,31 +5095,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5222,19 +5171,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5243,10 +5192,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5257,21 +5206,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5283,17 +5232,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5330,43 +5277,43 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5377,52 +5324,50 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>80</v>
@@ -5452,31 +5397,31 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5485,10 +5430,10 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5499,10 +5444,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5510,13 +5455,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5525,24 +5470,26 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
@@ -5584,7 +5531,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5605,10 +5552,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5619,10 +5566,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5630,13 +5577,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -5645,24 +5592,24 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
@@ -5704,7 +5651,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5725,10 +5672,10 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5739,10 +5686,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5750,13 +5697,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5765,24 +5712,24 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5824,7 +5771,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5845,10 +5792,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5859,10 +5806,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5885,19 +5832,17 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5946,7 +5891,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5967,10 +5912,10 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5981,10 +5926,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6007,19 +5952,19 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6068,7 +6013,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6089,10 +6034,10 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -6103,24 +6048,24 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -6129,19 +6074,19 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6166,13 +6111,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -6190,10 +6135,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>91</v>
@@ -6205,62 +6150,66 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6284,13 +6233,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6308,10 +6257,10 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>91</v>
@@ -6320,44 +6269,44 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6369,17 +6318,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6416,43 +6363,43 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6463,18 +6410,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6486,23 +6433,21 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6538,9 +6483,11 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6548,7 +6495,7 @@
         <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6560,7 +6507,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6569,10 +6516,10 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6583,14 +6530,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6599,7 +6544,7 @@
         <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6611,19 +6556,19 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6660,19 +6605,17 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6693,10 +6636,10 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6707,18 +6650,20 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>91</v>
@@ -6730,19 +6675,23 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6790,19 +6739,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6811,10 +6760,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6825,21 +6774,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6851,17 +6800,15 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6898,43 +6845,43 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6945,21 +6892,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6968,29 +6915,27 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -7020,31 +6965,31 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -7053,10 +6998,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7067,10 +7012,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7078,7 +7023,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -7093,24 +7038,26 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7099,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7173,10 +7120,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7187,10 +7134,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7198,7 +7145,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -7213,24 +7160,24 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>80</v>
@@ -7272,7 +7219,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7293,10 +7240,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7307,10 +7254,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7318,7 +7265,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7333,24 +7280,24 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>80</v>
@@ -7392,7 +7339,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7413,10 +7360,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7427,10 +7374,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7453,19 +7400,17 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7459,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7535,10 +7480,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7549,14 +7494,12 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7577,19 +7520,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7638,13 +7581,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -7659,10 +7602,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7673,12 +7616,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7696,19 +7641,23 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7756,19 +7705,19 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7777,10 +7726,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7791,21 +7740,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7817,17 +7766,15 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7864,43 +7811,43 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7911,21 +7858,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7934,23 +7881,21 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7959,7 +7904,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7986,31 +7931,31 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -8019,10 +7964,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -8033,10 +7978,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8044,7 +7989,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -8059,18 +8004,20 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8079,7 +8026,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -8118,7 +8065,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8139,10 +8086,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8153,10 +8100,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8164,7 +8111,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>91</v>
@@ -8179,18 +8126,18 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8199,7 +8146,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -8238,7 +8185,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8259,10 +8206,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8273,10 +8220,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8284,7 +8231,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -8299,17 +8246,17 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8319,7 +8266,7 @@
         <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>80</v>
@@ -8358,7 +8305,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8379,10 +8326,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8393,10 +8340,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8419,19 +8366,17 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8480,7 +8425,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8501,10 +8446,10 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8515,10 +8460,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8541,19 +8486,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8602,7 +8547,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8623,10 +8568,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8637,10 +8582,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8648,13 +8593,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8663,19 +8608,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8724,7 +8669,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8739,19 +8684,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8759,10 +8704,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8770,13 +8715,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8785,18 +8730,20 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8844,13 +8791,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8859,19 +8806,19 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8879,21 +8826,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8905,20 +8852,18 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8966,13 +8911,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8981,19 +8926,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -9001,24 +8946,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -9027,19 +8972,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9088,7 +9033,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9097,25 +9042,25 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9123,24 +9068,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -9149,18 +9094,20 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9208,34 +9155,34 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9243,10 +9190,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9257,7 +9204,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9269,18 +9216,18 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9316,23 +9263,25 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -9341,19 +9290,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9361,14 +9310,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9389,17 +9336,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9436,19 +9383,17 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9463,19 +9408,19 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9483,13 +9428,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9511,17 +9456,17 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9570,7 +9515,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9585,19 +9530,19 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9605,12 +9550,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9619,10 +9566,10 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -9631,19 +9578,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9680,59 +9625,59 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9753,19 +9698,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9802,19 +9747,17 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9823,7 +9766,7 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9832,29 +9775,31 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9866,25 +9811,29 @@
         <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9932,7 +9881,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>221</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9941,47 +9890,47 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>222</v>
+        <v>426</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9993,17 +9942,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10040,43 +9987,43 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -10087,46 +10034,44 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>231</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10162,31 +10107,31 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>233</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10195,10 +10140,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10209,10 +10154,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10220,39 +10165,39 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10272,13 +10217,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -10296,7 +10241,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10317,10 +10262,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10331,10 +10276,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10342,37 +10287,39 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="R66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10392,13 +10339,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10416,7 +10363,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10437,10 +10384,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10451,10 +10398,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10477,24 +10424,24 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>80</v>
@@ -10536,7 +10483,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10492,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10557,10 +10504,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10571,10 +10518,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10597,26 +10544,24 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>80</v>
@@ -10634,13 +10579,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10658,7 +10603,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10667,7 +10612,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10679,10 +10624,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10693,10 +10638,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10704,7 +10649,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>91</v>
@@ -10716,22 +10661,22 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10756,13 +10701,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10780,7 +10725,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10789,7 +10734,7 @@
         <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>103</v>
@@ -10801,10 +10746,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>134</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10815,24 +10760,24 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10841,19 +10786,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10878,13 +10823,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10902,16 +10847,16 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10920,31 +10865,31 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>496</v>
+        <v>134</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10963,19 +10908,19 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -11000,13 +10945,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -11024,7 +10969,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11042,27 +10987,27 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11073,7 +11018,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -11085,16 +11030,20 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>219</v>
+        <v>505</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11142,19 +11091,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -11163,10 +11112,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>222</v>
+        <v>510</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11177,21 +11126,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11203,16 +11152,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>225</v>
+        <v>512</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>226</v>
+        <v>513</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11238,69 +11187,67 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>228</v>
+        <v>511</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>222</v>
+        <v>518</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11311,7 +11258,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11320,20 +11267,18 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>510</v>
+        <v>223</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>511</v>
+        <v>224</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11382,7 +11327,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>514</v>
+        <v>226</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11394,7 +11339,7 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11403,10 +11348,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>515</v>
+        <v>227</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11417,21 +11362,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11440,18 +11385,20 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>517</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>230</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11488,31 +11435,31 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>520</v>
+        <v>233</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11521,10 +11468,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11546,10 +11493,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11561,16 +11508,20 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>237</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11594,13 +11545,11 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11618,13 +11567,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>526</v>
+        <v>241</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -11639,10 +11588,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>527</v>
+        <v>243</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11653,10 +11602,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11679,17 +11628,15 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>529</v>
+        <v>224</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11714,11 +11661,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11736,7 +11685,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>528</v>
+        <v>226</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11748,44 +11697,44 @@
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>535</v>
+        <v>227</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11797,15 +11746,17 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11842,31 +11793,31 @@
         <v>80</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11878,7 +11829,7 @@
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11889,21 +11840,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11912,21 +11863,23 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11962,31 +11915,31 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11995,10 +11948,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12009,10 +11962,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12023,7 +11976,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -12035,20 +11988,18 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12072,11 +12023,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12094,13 +12047,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -12115,10 +12068,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12129,10 +12082,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12140,7 +12093,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>91</v>
@@ -12152,19 +12105,21 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12212,7 +12167,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12224,7 +12179,7 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12233,10 +12188,10 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12247,21 +12202,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12270,21 +12225,21 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12320,31 +12275,31 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
@@ -12353,10 +12308,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12367,10 +12322,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12378,7 +12333,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>91</v>
@@ -12393,19 +12348,19 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12454,7 +12409,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12475,10 +12430,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12489,10 +12444,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12515,18 +12470,20 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12574,7 +12531,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12595,10 +12552,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12609,10 +12566,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12620,7 +12577,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>91</v>
@@ -12632,20 +12589,22 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>263</v>
+        <v>532</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>265</v>
+        <v>535</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12670,13 +12629,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12694,7 +12653,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>267</v>
+        <v>531</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12715,10 +12674,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>268</v>
+        <v>539</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>269</v>
+        <v>540</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12729,10 +12688,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12752,21 +12711,21 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>218</v>
+        <v>542</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>272</v>
+        <v>543</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12814,7 +12773,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>275</v>
+        <v>541</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12832,27 +12791,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>276</v>
+        <v>547</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12872,23 +12831,21 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>280</v>
+        <v>551</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>281</v>
+        <v>552</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>282</v>
+        <v>553</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12936,7 +12893,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>285</v>
+        <v>550</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12954,27 +12911,27 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>286</v>
+        <v>556</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>287</v>
+        <v>557</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12985,7 +12942,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12994,22 +12951,22 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>218</v>
+        <v>560</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>290</v>
+        <v>561</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>291</v>
+        <v>562</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>292</v>
+        <v>563</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>293</v>
+        <v>564</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13058,19 +13015,19 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>294</v>
+        <v>559</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>565</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -13079,10 +13036,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>295</v>
+        <v>566</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>296</v>
+        <v>567</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13093,10 +13050,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13119,20 +13076,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>549</v>
+        <v>224</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13156,13 +13109,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13180,7 +13133,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>548</v>
+        <v>226</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13192,7 +13145,7 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -13201,10 +13154,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>557</v>
+        <v>227</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13215,21 +13168,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13241,16 +13194,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>559</v>
+        <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>560</v>
+        <v>230</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>561</v>
+        <v>231</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>562</v>
+        <v>166</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13300,79 +13253,81 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>558</v>
+        <v>233</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>565</v>
+        <v>227</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>568</v>
+        <v>136</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13420,45 +13375,45 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>572</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>574</v>
+        <v>134</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13469,7 +13424,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13481,20 +13436,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>581</v>
-      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13542,19 +13493,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>582</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13563,10 +13514,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13577,10 +13528,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13603,13 +13554,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>218</v>
+        <v>576</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>219</v>
+        <v>583</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>220</v>
+        <v>584</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13660,7 +13611,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13669,10 +13620,10 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13681,10 +13632,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>222</v>
+        <v>585</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13702,14 +13653,14 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13721,18 +13672,20 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>225</v>
+        <v>587</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>226</v>
+        <v>588</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13756,13 +13709,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13780,31 +13733,31 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>228</v>
+        <v>586</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13815,14 +13768,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13835,25 +13788,25 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>161</v>
+        <v>598</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>162</v>
+        <v>599</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13878,13 +13831,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>601</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13902,7 +13855,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13914,19 +13867,19 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13937,10 +13890,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13963,16 +13916,18 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -14020,7 +13975,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14029,7 +13984,7 @@
         <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>103</v>
@@ -14041,10 +13996,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14055,10 +14010,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14081,13 +14036,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>593</v>
+        <v>223</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14138,7 +14093,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14147,7 +14102,7 @@
         <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>103</v>
@@ -14159,10 +14114,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14173,10 +14128,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14187,7 +14142,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -14196,23 +14151,21 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>204</v>
+        <v>613</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14236,13 +14189,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>608</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>609</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -14260,13 +14213,13 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
@@ -14278,13 +14231,13 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>497</v>
+        <v>618</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14295,10 +14248,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14318,23 +14271,21 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>204</v>
+        <v>620</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14358,13 +14309,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>553</v>
+        <v>80</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -14382,7 +14333,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14400,13 +14351,13 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>497</v>
+        <v>624</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14417,10 +14368,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14431,29 +14382,31 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="O100" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14502,19 +14455,19 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>629</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14523,10 +14476,10 @@
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14537,10 +14490,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14563,13 +14516,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>626</v>
+        <v>224</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>627</v>
+        <v>225</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14620,7 +14573,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>625</v>
+        <v>226</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14632,7 +14585,7 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>80</v>
@@ -14641,10 +14594,10 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>628</v>
+        <v>227</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14655,14 +14608,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14678,19 +14631,19 @@
         <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>630</v>
+        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>631</v>
+        <v>230</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>632</v>
+        <v>231</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>633</v>
+        <v>166</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14740,7 +14693,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>629</v>
+        <v>233</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14752,7 +14705,7 @@
         <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
@@ -14761,10 +14714,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>635</v>
+        <v>227</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14775,14 +14728,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14795,24 +14748,26 @@
         <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>637</v>
+        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>638</v>
+        <v>572</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>639</v>
+        <v>573</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14860,7 +14815,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14872,7 +14827,7 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -14881,10 +14836,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>641</v>
+        <v>134</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -14895,10 +14850,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14906,10 +14861,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>92</v>
@@ -14921,19 +14876,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>577</v>
+        <v>209</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14958,13 +14913,13 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14982,34 +14937,34 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>646</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>647</v>
+        <v>313</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>648</v>
+        <v>314</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15017,10 +14972,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15034,25 +14989,29 @@
         <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>218</v>
+        <v>642</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>219</v>
+        <v>643</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -15076,13 +15035,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -15100,7 +15059,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>221</v>
+        <v>641</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15109,28 +15068,28 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>648</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>80</v>
+        <v>649</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>222</v>
+        <v>426</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -15142,17 +15101,17 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>80</v>
@@ -15161,18 +15120,20 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>225</v>
+        <v>651</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>226</v>
+        <v>652</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15196,13 +15157,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -15220,19 +15181,19 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>228</v>
+        <v>650</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>80</v>
+        <v>654</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
@@ -15241,10 +15202,10 @@
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>222</v>
+        <v>490</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>80</v>
@@ -15255,14 +15216,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>588</v>
+        <v>492</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15275,25 +15236,25 @@
         <v>80</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>589</v>
+        <v>493</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>590</v>
+        <v>494</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>161</v>
+        <v>495</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>162</v>
+        <v>496</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15318,13 +15279,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -15342,7 +15303,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15354,33 +15315,33 @@
         <v>80</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15388,34 +15349,34 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15440,13 +15401,13 @@
         <v>80</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -15464,13 +15425,13 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>80</v>
@@ -15482,511 +15443,23 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>657</v>
+        <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>308</v>
+        <v>566</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>309</v>
+        <v>567</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP112" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP112">
+  <autoFilter ref="A1:AP108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15996,7 +15469,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -15035,7 +15035,7 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="Y105" t="s" s="2">
         <v>646</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the body temperature archetype: Kroppstemperatur, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.1855</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Body Temperature information. Used for recording the measurement of an individual's body temperature, which is a surrogate for the core body temperature of the individual.</t>
+    <t>Base profile for Norwegian Vital Signs Observation Body Temperature information. To be used for recording the measurement of an individual's body temperature. which is a surrogate for the core body temperature of the individual.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,13 +84,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Body Temperature information. To be used for recording the measurement of an individual's body temperature. which is a surrogate for the core body temperature of the individual.</t>
+    <t>Domain profile for Norwegian Vital Signs Observation Body Temperature information. To be used for recording the measurement of an individual's body temperature. which is a surrogate for the core body temperature of the individual.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Basisprofile for Norwegian  VitalSigns Observation Body Temperature information. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Body Temperature.</t>
+    <t>Domain profile for Norwegian  VitalSigns Observation Body Temperature information. Defined by The Norwegian Directorate of health and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Body Temperature.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyTemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2417,17 +2417,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.11328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2436,28 +2436,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.2890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.83203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
